--- a/AAAGameData/Tables/Datas/#combat_unit.xlsx
+++ b/AAAGameData/Tables/Datas/#combat_unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17055"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -1211,18 +1211,18 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
